--- a/CASUAL/LA PICNIC GROVE/ASIDO, LEONILA RAMILO.xlsx
+++ b/CASUAL/LA PICNIC GROVE/ASIDO, LEONILA RAMILO.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
   <si>
     <t>PERIOD</t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>UT(0-5-57)</t>
+  </si>
+  <si>
+    <t>UT(0-3-56)</t>
+  </si>
+  <si>
+    <t>UT(0-1-15)</t>
+  </si>
+  <si>
+    <t>UT(0-1-59)</t>
+  </si>
+  <si>
+    <t>UT(0-3-32)</t>
   </si>
 </sst>
 </file>
@@ -739,17 +751,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -759,6 +768,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1289,7 +1301,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1344,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1408,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1468,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1534,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1597,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1695,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1754,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1819,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1862,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1937,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2123,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2189,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2247,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2313,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2369,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2444,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2487,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2553,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2609,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3087,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,14 +3117,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3123,14 +3135,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3143,16 +3155,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3178,18 +3190,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3236,7 +3248,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>42.756</v>
+        <v>41.168000000000006</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4595,11 +4607,15 @@
       <c r="A72" s="40">
         <v>44621</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>0.442</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -4655,11 +4671,15 @@
       <c r="A75" s="40">
         <v>44713</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>0.248</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4675,11 +4695,15 @@
       <c r="A76" s="40">
         <v>44743</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
@@ -4695,11 +4719,15 @@
       <c r="A77" s="40">
         <v>44774</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>0.15600000000000003</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4715,11 +4743,15 @@
       <c r="A78" s="40">
         <v>44805</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>0.49199999999999999</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -5251,17 +5283,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5329,14 +5361,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5347,14 +5379,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5367,16 +5399,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5402,18 +5434,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6532,14 +6564,14 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.74399999999999999</v>
+        <v>0.442</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
